--- a/files/oidd2550/pima-diabetes.xlsx
+++ b/files/oidd2550/pima-diabetes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnytambe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnytambe/Dropbox/GitHub/tambep.github.io/files/oidd2550/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F74AF-8F15-5549-8102-43B585193A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A84E04-6B3E-694B-94EB-066346BE851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="6740" windowWidth="22720" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:Q541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/files/oidd2550/pima-diabetes.xlsx
+++ b/files/oidd2550/pima-diabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnytambe/Dropbox/GitHub/tambep.github.io/files/oidd2550/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A84E04-6B3E-694B-94EB-066346BE851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C2458-776D-314C-BE31-4AB51FDA4551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="6740" windowWidth="22720" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
